--- a/financial income and expenses.xlsx
+++ b/financial income and expenses.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rito Chabalala\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\renderVisualisations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197E49F1-4491-4F64-BFC2-F8A4C4C76B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA44174B-F61F-4D74-B60B-7448306E918E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{BB6A7233-3964-479D-8DB2-EEA1642D8656}"/>
   </bookViews>
@@ -239,12 +239,15 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -254,9 +257,6 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -284,11 +284,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68764AD8-9438-41A3-89AA-6C4523CD1065}" name="financial_income_and_expenses" displayName="financial_income_and_expenses" ref="A1:C13" tableType="queryTable" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68764AD8-9438-41A3-89AA-6C4523CD1065}" name="financial_income_and_expenses" displayName="financial_income_and_expenses" ref="A1:C13" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{43B38F9B-19CD-43BB-9E73-C248116E4B81}" uniqueName="1" name="Month" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{43B38F9B-19CD-43BB-9E73-C248116E4B81}" uniqueName="1" name="Month" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{AC1CE1DE-61A8-4C3A-B474-3935B94F9EDD}" uniqueName="2" name="Income" queryTableFieldId="2" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{11D64F92-E2F7-4298-929F-E5B203F35D26}" uniqueName="3" name="Expenses" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{11D64F92-E2F7-4298-929F-E5B203F35D26}" uniqueName="3" name="Expenses" queryTableFieldId="3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
